--- a/Tracker.xlsx
+++ b/Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming\GitHub Connected Repo\Dona Dogs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8EBA4E6-E146-4715-827C-1A64B8667BCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBBAD419-D02C-490D-A24C-864EA26DCF03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="56">
   <si>
     <t>Task</t>
   </si>
@@ -102,6 +102,102 @@
   </si>
   <si>
     <t>Add filters: sort by time in the shelter, show only dogs without virtual adopters</t>
+  </si>
+  <si>
+    <t>Dogs</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Profile pic</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>Additional pics</t>
+  </si>
+  <si>
+    <t>Videos</t>
+  </si>
+  <si>
+    <t>Virtual adopter (link to users table)</t>
+  </si>
+  <si>
+    <t>Virtual adoption duration</t>
+  </si>
+  <si>
+    <t>Adopter</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Vaccine status</t>
+  </si>
+  <si>
+    <t>Diseases</t>
+  </si>
+  <si>
+    <t>Monthly_upkeep</t>
+  </si>
+  <si>
+    <t>Time in shelter</t>
+  </si>
+  <si>
+    <t>AliveFlag</t>
+  </si>
+  <si>
+    <t>Arrival date</t>
+  </si>
+  <si>
+    <t>Validators</t>
+  </si>
+  <si>
+    <t>Donations</t>
+  </si>
+  <si>
+    <t>Name (if anonymous last 4 symbols of their or other identifier)</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>Work performed</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Users</t>
+  </si>
+  <si>
+    <t>First name</t>
+  </si>
+  <si>
+    <t>Last name</t>
+  </si>
+  <si>
+    <t>Email address</t>
+  </si>
+  <si>
+    <t>Dogs adopted</t>
+  </si>
+  <si>
+    <t>Dogs virtually adopted</t>
+  </si>
+  <si>
+    <t>Create subscribe to newsletters button</t>
+  </si>
+  <si>
+    <t>A random success story</t>
+  </si>
+  <si>
+    <t>Bottom row has subscribe to newsletter</t>
   </si>
 </sst>
 </file>
@@ -279,7 +375,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -316,6 +412,18 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1753,7 +1861,7 @@
   <dimension ref="A2:C27"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1806,6 +1914,9 @@
       <c r="A7">
         <v>5</v>
       </c>
+      <c r="B7" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -1917,8 +2028,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B3B75A0-7640-4DF2-B0BF-8C0A270231C0}">
   <dimension ref="D3:AE95"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="R102" sqref="R102"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1957,7 +2068,10 @@
       <c r="U4" s="17"/>
       <c r="V4" s="17"/>
     </row>
-    <row r="5" spans="4:31" ht="21" x14ac:dyDescent="0.35">
+    <row r="5" spans="4:31" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="D5" s="18" t="s">
+        <v>55</v>
+      </c>
       <c r="K5" s="17"/>
       <c r="L5" s="17"/>
       <c r="M5" s="17"/>
@@ -2475,7 +2589,7 @@
   <dimension ref="C3:R9"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="AF30" sqref="AF30"/>
+      <selection activeCell="AC4" sqref="AC4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2562,6 +2676,9 @@
     <row r="7" spans="3:18" ht="23.25" x14ac:dyDescent="0.35">
       <c r="C7" s="18" t="s">
         <v>23</v>
+      </c>
+      <c r="R7" s="18" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="3:18" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -2591,7 +2708,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB1597C9-691D-442A-BB00-FD3C22311225}">
   <dimension ref="C3:C9"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="U62" sqref="U62"/>
     </sheetView>
   </sheetViews>
@@ -2626,14 +2743,248 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="B4:D35"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="39.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>6</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>7</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>8</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>9</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>10</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>11</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>12</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>13</v>
+      </c>
+      <c r="C17" s="25" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>14</v>
+      </c>
+      <c r="C18" s="25" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>15</v>
+      </c>
+      <c r="C19" s="25" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C22" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23" s="25" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24" s="25" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>3</v>
+      </c>
+      <c r="C25" s="25" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>4</v>
+      </c>
+      <c r="C26" s="25" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>5</v>
+      </c>
+      <c r="C27" s="25" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C29" s="28" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30" s="26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>2</v>
+      </c>
+      <c r="C31" s="26" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>3</v>
+      </c>
+      <c r="C32" s="26" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <v>4</v>
+      </c>
+      <c r="C33" s="26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <v>5</v>
+      </c>
+      <c r="C34" s="26" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <v>6</v>
+      </c>
+      <c r="C35" s="26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>